--- a/ClientDefault/初始文本表.xlsx
+++ b/ClientDefault/初始文本表.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/global/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/ClientDefault/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01106E84-E811-0E4F-BE24-28377B2EBA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36A93CB-6033-904C-8C78-53D411CDBA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="10660" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
+    <workbookView xWindow="17220" yWindow="10000" windowWidth="27440" windowHeight="16440" xr2:uid="{A506EFEE-DB45-1345-91ED-A6F2340E8B1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>##var#column</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -108,6 +108,62 @@
   </si>
   <si>
     <t>text#sep=|</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.confirm|确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.cancel|取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.retry|重试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>button.quit|退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_confirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_cancel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_retry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btn_quit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_checking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip.res_check|检查资源更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip_res_downloading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tip.res_download|资源下载中</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C17B65C-503A-1A4B-A60D-7E0DAB0FEFEF}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -617,6 +673,78 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
